--- a/Задачи на shop.xlsx
+++ b/Задачи на shop.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton.Drozdov\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Веб" sheetId="1" r:id="rId1"/>
+    <sheet name="Технологии в ВЕБ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Задача</t>
   </si>
@@ -66,6 +62,24 @@
   </si>
   <si>
     <t>Добавление функционала админ панели к этому новому приложению</t>
+  </si>
+  <si>
+    <t>Технологии</t>
+  </si>
+  <si>
+    <t>Где применять</t>
+  </si>
+  <si>
+    <t>все взаимодействие с БД</t>
+  </si>
+  <si>
+    <t>Entity framework</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>изучить и все штуки только с помощью нее</t>
   </si>
 </sst>
 </file>
@@ -185,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -456,7 +470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -485,4 +499,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>